--- a/pred_ohlcv/54_21/2020-01-16 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ADA ohlcv.xlsx
@@ -1042,7 +1042,7 @@
         <v>-245654.37076902</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-245654.37076902</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-269660.06496902</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-269586.06496902</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-269586.06496902</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1282270.58780874</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1282270.58780874</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1187600.95780874</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1187600.95780874</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1506460.32080874</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1606650.02650874</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1550361.71930874</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1550361.71930874</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1469733.78320874</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1473806.01320874</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1467557.76610874</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1541290.33146856</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1541290.33146856</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1469483.14886856</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1722742.89946856</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1799725.46366856</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1732417.18326856</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1723797.99646856</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1970594.15886856</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1970594.15886856</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1993135.68026856</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2008588.78626856</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2050011.30376856</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2020165.10466856</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2162011.517068559</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2074109.602968559</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2194830.626126799</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>2165938.174626799</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2318813.811326799</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>2244760.138626799</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>2244760.138626799</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>2253737.814626799</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>2371692.0642268</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1946153.62621407</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>2104923.94031407</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>2027657.19811407</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1805109.31351407</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1805109.31351407</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1805109.31351407</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1761884.68461407</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1820250.15821407</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1640085.25501396</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1770360.60851396</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1960978.970415239</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1961863.689315239</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1961863.689315239</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1954651.143315239</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1956118.377515239</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>2125964.47461054</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>2148051.43641054</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>2148051.43641054</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>2150405.80581054</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>2150405.80581054</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>2150405.80581054</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>2137528.24181054</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>2092355.44291054</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>2039977.68521054</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>2039977.68521054</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>2039977.68521054</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>2005162.61991054</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1970347.55461054</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1970312.13281054</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1983115.86721054</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>1987656.94901054</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1987645.92121054</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1987645.92121054</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1982670.651010541</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>2092939.383918781</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>2092526.431618781</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>2092526.431618781</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>2092526.431618781</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>3241910.786692061</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>3245032.017292061</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>3292023.454591711</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>3265168.026291711</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>3253567.019091711</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>3254450.203591711</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>3253590.203591711</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>3253590.203591711</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>3300756.697386211</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>3252030.359486211</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>3006288.491986211</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>2942891.084886211</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>2995187.848486211</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>3002665.425086211</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>3053367.953786211</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>3053921.953786211</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>3081406.616886211</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>3092864.202699761</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>3108206.585899761</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>3129195.458999761</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>3151869.298599761</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>3135662.229199761</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>3026264.890299761</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>2869139.643199761</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>2552005.729299761</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>2414708.933899761</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>2304525.833099761</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>2332878.647999761</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>2105911.436999761</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>1998980.753399761</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>1998980.753399761</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>2739613.9661971</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>2448859.8990971</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>2454975.2669971</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>2454975.2669971</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>2394699.6910971</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>2392478.9696971</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>2379931.22287443</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>2382542.806363809</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>2376804.242863809</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>2495271.651069269</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>2367741.67754175</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>2418797.09469236</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ADA ohlcv.xlsx
@@ -1120,7 +1120,7 @@
         <v>-269586.06496902</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-269586.06496902</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1282270.58780874</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1282270.58780874</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1187600.95780874</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1187600.95780874</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1506460.32080874</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1606650.02650874</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1550361.71930874</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1550361.71930874</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1469733.78320874</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1473806.01320874</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1467557.76610874</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1541290.33146856</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1541290.33146856</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1469483.14886856</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1722742.89946856</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1799725.46366856</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1732417.18326856</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1723797.99646856</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1970594.15886856</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1970594.15886856</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1993135.68026856</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2008588.78626856</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2050011.30376856</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2020165.10466856</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2162011.517068559</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2074109.602968559</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2194830.626126799</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>2165938.174626799</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2318813.811326799</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>2244760.138626799</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>2244760.138626799</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>2253737.814626799</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>2371692.0642268</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1946153.62621407</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>2104923.94031407</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>2027657.19811407</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1805109.31351407</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1805109.31351407</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1805109.31351407</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1761884.68461407</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1820250.15821407</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1640085.25501396</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1770360.60851396</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1960978.970415239</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1961863.689315239</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1961863.689315239</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1954651.143315239</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1956118.377515239</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>2125964.47461054</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>2148051.43641054</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>2148051.43641054</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>2150405.80581054</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>2150405.80581054</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>2150405.80581054</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>2137528.24181054</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>2092355.44291054</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>2039977.68521054</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>2039977.68521054</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>2039977.68521054</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>2005162.61991054</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1970347.55461054</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1970312.13281054</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1983115.86721054</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>1987656.94901054</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1987645.92121054</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1987645.92121054</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1982670.651010541</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>2092939.383918781</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>2092526.431618781</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>2092526.431618781</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>2092526.431618781</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>3353587.597692061</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>3242624.027492061</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>3241910.786692061</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>3241910.786692061</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>3245032.017292061</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>3292023.454591711</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>3265168.026291711</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>3253567.019091711</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>3254450.203591711</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>3253590.203591711</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>3253590.203591711</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>3300756.697386211</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>3252030.359486211</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>3006288.491986211</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>2942891.084886211</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>2995187.848486211</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>3002665.425086211</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>3053367.953786211</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>3053921.953786211</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>3081406.616886211</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>3092864.202699761</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>3108206.585899761</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>3129195.458999761</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>3151869.298599761</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>3135662.229199761</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>3026264.890299761</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>2869139.643199761</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>2552005.729299761</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>2414708.933899761</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>2304525.833099761</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>2332878.647999761</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>2105911.436999761</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>1998980.753399761</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>2744143.8545971</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>2761538.3280971</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>2739613.9661971</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>2739613.9661971</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>2448859.8990971</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>2448859.8990971</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>2454975.2669971</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>2454975.2669971</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>2394699.6910971</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>2405967.8338971</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>2392478.9696971</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>2362025.66688851</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>2494224.28882049</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>2498101.90762049</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>2498101.90762049</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>2492770.90102049</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>2494898.56059495</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>2475147.33859495</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>2464863.01289495</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>2473195.90499495</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>2474670.91379495</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>2481159.96644175</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>2480427.98594175</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>2458921.74304175</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>2616344.368433259</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>2618470.68634175</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>2539931.307541749</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>2539931.307541749</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>2541377.36064175</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>2503767.731341749</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>2505789.731341749</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>2489208.294941749</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>2527188.635941749</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>2525700.44044175</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>2525303.72354175</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>2525517.53704175</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>2528717.53704175</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>2367741.67754175</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>2418797.09469236</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>2366493.91299236</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>2234186.95709236</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>2231967.30449236</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
